--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -1,25 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F82727-6D38-4347-9D43-9E046068FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D1402450-6380-448F-972E-9D1DBB3CE5CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
+    <sheet name="PLATFORMS" sheetId="3" r:id="rId2"/>
+    <sheet name="SYSTEMS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>VkJB</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>RXhjZWw=</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Long_Name</t>
+  </si>
+  <si>
+    <t>Report_Name</t>
+  </si>
+  <si>
+    <t>QVNS</t>
+  </si>
+  <si>
+    <t>QWdncmVnYXRlZCBTYWxlcyBSZXBvcnQ=</t>
+  </si>
+  <si>
+    <t>QkNEQg==</t>
+  </si>
+  <si>
+    <t>QmxvY2tlZCBDbGllbnQgRGF0YWJhc2U=</t>
+  </si>
+  <si>
+    <t>QmxvY2tzIERhdGFiYXNl</t>
+  </si>
+  <si>
+    <t>QlJDR0VO</t>
+  </si>
+  <si>
+    <t>QmFyY29kZSBHZW5lcmF0b3I=</t>
+  </si>
+  <si>
+    <t>Q1BNUw==</t>
+  </si>
+  <si>
+    <t>Q2xpZW50IFBvcnRmb2xpbyBNb25pdG9yaW5nIFN5c3RlbQ==</t>
+  </si>
+  <si>
+    <t>Q2xpZW50IExpc3RzIEFuYWx5c2lz</t>
+  </si>
+  <si>
+    <t>RENMUg==</t>
+  </si>
+  <si>
+    <t>RGVza3RvcCBDbGVhbmVy</t>
+  </si>
+  <si>
+    <t>REVWTVM=</t>
+  </si>
+  <si>
+    <t>RGV2ZWxvcG1lbnQgTW9uaXRvcmluZyBTeXN0ZW0=</t>
+  </si>
+  <si>
+    <t>RGV2ZWxvcG1lbnQgTW9uaXRvcmluZw==</t>
+  </si>
+  <si>
+    <t>RFFB</t>
+  </si>
+  <si>
+    <t>RGF0YSBRdWFsaXR5IEFuYWx5emVy</t>
+  </si>
+  <si>
+    <t>RGF0YSBFcnJvcnMgRGlzY292ZXJ5</t>
+  </si>
+  <si>
+    <t>RFFF</t>
+  </si>
+  <si>
+    <t>RGF0YSBRdWFsaXR5IEVuaGFuY2Vy</t>
+  </si>
+  <si>
+    <t>RXhwb3J0ZWQgUmVwb3J0IEZpeGVycw==</t>
+  </si>
+  <si>
+    <t>RFNS</t>
+  </si>
+  <si>
+    <t>RGFpbHkgU2FsZXMgUmVwb3J0</t>
+  </si>
+  <si>
+    <t>SURC</t>
+  </si>
+  <si>
+    <t>SW52b2ljZSBEYXRhYmFzZQ==</t>
+  </si>
+  <si>
+    <t>TVBQQ1I=</t>
+  </si>
+  <si>
+    <t>TWFuYWdlciBQZXJmb3JtYW5jZSBQaWN0dXJlIENvdW50IFJlcG9ydA==</t>
+  </si>
+  <si>
+    <t>UGljdHVyZSBDb3VudCBTeXN0ZW0=</t>
+  </si>
+  <si>
+    <t>UFBNUw==</t>
+  </si>
+  <si>
+    <t>UHJvZHVjdCBQb3J0Zm9saW8gTW9uaXRvcmluZyBTeXN0ZW0=</t>
+  </si>
+  <si>
+    <t>UHJvZHVjdCBQb3J0Zm9saW8gUmVwb3J0cw==</t>
+  </si>
+  <si>
+    <t>U0RB</t>
+  </si>
+  <si>
+    <t>U2FsZXMgRGVidCBBbmFseXplcg==</t>
+  </si>
+  <si>
+    <t>TWFuYWdlciBDbGVhcmluZyBTeXN0ZW0=</t>
+  </si>
+  <si>
+    <t>VUNS</t>
+  </si>
+  <si>
+    <t>VW5pcXVlIENsaWVudCBSZXBvcnQ=</t>
+  </si>
+  <si>
+    <t>VU5JQ09OVg==</t>
+  </si>
+  <si>
+    <t>VW5pY29kZSBDb252ZXJ0ZXI=</t>
+  </si>
+  <si>
+    <t>VVND</t>
+  </si>
+  <si>
+    <t>VW5pdmVyc2FsIFN5c3RlbSBDb250YWluZXI=</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,13 +212,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +245,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F12DE1B-E59E-4B90-A6FD-333C68F1037A}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{8F12DE1B-E59E-4B90-A6FD-333C68F1037A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8DC035D3-8ACC-4966-9824-EEB787D559F5}" name="Language"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CA76B9D-C8B8-4473-A905-E658AEAC587E}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{3CA76B9D-C8B8-4473-A905-E658AEAC587E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{225344A8-CD0E-4ED7-83C7-AE1F8BEB9CB5}" name="Platform"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF2A1713-7343-4043-8E48-221CFC261DC8}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17" xr:uid="{FF2A1713-7343-4043-8E48-221CFC261DC8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AF4305C3-6FB9-403F-893D-129FDD303CAF}" name="System"/>
+    <tableColumn id="5" xr3:uid="{1EB14245-3540-4B69-8953-ACF5AE2E53F7}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FCE01D1A-D48D-4D44-A347-8DB6DEFAEF9D}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C5F50A83-7C67-4A6F-8338-892C7E764D4C}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{2FBFE350-A462-40CD-B00F-A52491636B1E}" name="Report_Name" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +307,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +319,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +366,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +586,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C17B27-606B-4D78-A1CE-DDD30950FF83}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62C1B8-5E7C-4629-9C87-35DA26E9387D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A7B8A7-1300-4790-A5D6-E309A562B707}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F82727-6D38-4347-9D43-9E046068FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88228A41-6AE8-473D-96A0-49223E841E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D1402450-6380-448F-972E-9D1DBB3CE5CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E2AC10F6-4390-40CB-94FD-19E84E3EEB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -248,43 +248,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F12DE1B-E59E-4B90-A6FD-333C68F1037A}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{8F12DE1B-E59E-4B90-A6FD-333C68F1037A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25FEE2F7-9FB4-4204-AD29-20F75E7B7849}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{25FEE2F7-9FB4-4204-AD29-20F75E7B7849}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8DC035D3-8ACC-4966-9824-EEB787D559F5}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{327DBF1B-41EF-4C27-A194-762DF77E3E59}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CA76B9D-C8B8-4473-A905-E658AEAC587E}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{3CA76B9D-C8B8-4473-A905-E658AEAC587E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD1B186C-1C7E-4EB1-B816-12CE662AF78F}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{BD1B186C-1C7E-4EB1-B816-12CE662AF78F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{225344A8-CD0E-4ED7-83C7-AE1F8BEB9CB5}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{CB3F18D5-D6C5-4FBF-A827-577C9E1ADBA6}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF2A1713-7343-4043-8E48-221CFC261DC8}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E17" totalsRowShown="0">
-  <autoFilter ref="A1:E17" xr:uid="{FF2A1713-7343-4043-8E48-221CFC261DC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DAB1C84-E856-4AD9-AEA3-F9ACF4F6D73B}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17" xr:uid="{5DAB1C84-E856-4AD9-AEA3-F9ACF4F6D73B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AF4305C3-6FB9-403F-893D-129FDD303CAF}" name="System"/>
-    <tableColumn id="5" xr3:uid="{1EB14245-3540-4B69-8953-ACF5AE2E53F7}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FCE01D1A-D48D-4D44-A347-8DB6DEFAEF9D}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C5F50A83-7C67-4A6F-8338-892C7E764D4C}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{2FBFE350-A462-40CD-B00F-A52491636B1E}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1383D1A3-0CF3-4612-B145-EB5B122E4014}" name="System"/>
+    <tableColumn id="5" xr3:uid="{B830370E-7F6F-45A6-BC98-28507B94BC27}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{297B86B4-EB29-432A-ADB8-CFBD99137CA5}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1F1E8E68-CF33-4909-A9DF-D8B7B8F7160A}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BBAAAC71-0ECC-4676-935C-F1D8FB2BD92A}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C17B27-606B-4D78-A1CE-DDD30950FF83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BE1856-4F06-4F2B-B3A3-35F25DCB4FA8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62C1B8-5E7C-4629-9C87-35DA26E9387D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B0B35A-D59C-4308-9582-3D93F1E8EBCB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A7B8A7-1300-4790-A5D6-E309A562B707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD18EC6-83DE-4AAB-9A38-63FFF9A7310B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88228A41-6AE8-473D-96A0-49223E841E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AE066-CC97-4052-98DE-F9698BC0B1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E2AC10F6-4390-40CB-94FD-19E84E3EEB9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7BACEFDE-E214-447B-80B7-19F691EAB641}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Language</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>UHJvZHVjdCBQb3J0Zm9saW8gUmVwb3J0cw==</t>
+  </si>
+  <si>
+    <t>UVJDR0VO</t>
+  </si>
+  <si>
+    <t>UVIgQ29kZSBHZW5lcmF0b3I=</t>
   </si>
   <si>
     <t>U0RB</t>
@@ -248,43 +254,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25FEE2F7-9FB4-4204-AD29-20F75E7B7849}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{25FEE2F7-9FB4-4204-AD29-20F75E7B7849}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09096EE-6CA8-412E-90D2-FDE35E5F5D3D}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{C09096EE-6CA8-412E-90D2-FDE35E5F5D3D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{327DBF1B-41EF-4C27-A194-762DF77E3E59}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{1897498F-5EEE-457F-9983-0BB274B57A3D}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD1B186C-1C7E-4EB1-B816-12CE662AF78F}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{BD1B186C-1C7E-4EB1-B816-12CE662AF78F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FF6AB88-FF20-4898-81B0-54F7046CD037}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{4FF6AB88-FF20-4898-81B0-54F7046CD037}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CB3F18D5-D6C5-4FBF-A827-577C9E1ADBA6}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{3A612E01-D698-428B-8855-B7158EACEA24}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DAB1C84-E856-4AD9-AEA3-F9ACF4F6D73B}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E17" totalsRowShown="0">
-  <autoFilter ref="A1:E17" xr:uid="{5DAB1C84-E856-4AD9-AEA3-F9ACF4F6D73B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
-    <sortCondition ref="A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1582D9E-ECB2-48FC-98E2-BF40335BBF3F}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18" xr:uid="{B1582D9E-ECB2-48FC-98E2-BF40335BBF3F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1383D1A3-0CF3-4612-B145-EB5B122E4014}" name="System"/>
-    <tableColumn id="5" xr3:uid="{B830370E-7F6F-45A6-BC98-28507B94BC27}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{297B86B4-EB29-432A-ADB8-CFBD99137CA5}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1F1E8E68-CF33-4909-A9DF-D8B7B8F7160A}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BBAAAC71-0ECC-4676-935C-F1D8FB2BD92A}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{22AF5E5C-3514-41F2-B05A-8ACCFA0F59A2}" name="System"/>
+    <tableColumn id="5" xr3:uid="{BCD71EDD-5989-4B55-8520-15AAAA3EBB56}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7EE8E6F6-6E7B-48AC-B0EF-25B85D70E120}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D09D66D3-E73C-46FF-93EE-FD02491C750C}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9618C904-C5D0-4D0E-815E-764B3878ED32}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,7 +592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BE1856-4F06-4F2B-B3A3-35F25DCB4FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49477DA9-F1DB-41AF-AA9F-4BE3103739DD}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -615,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B0B35A-D59C-4308-9582-3D93F1E8EBCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27C3A40-FD0B-4B61-BE21-BD9D26AFB521}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -644,8 +650,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD18EC6-83DE-4AAB-9A38-63FFF9A7310B}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441AE6E1-DE8E-4702-A692-EB12BDF4E587}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -893,21 +899,21 @@
         <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
@@ -945,6 +951,23 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AE066-CC97-4052-98DE-F9698BC0B1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7412E435-9802-4CE8-8F21-CEFEA6E4BE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7BACEFDE-E214-447B-80B7-19F691EAB641}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6EC62AD7-D71E-4157-9955-D01787CC5FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Language</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>TWFuYWdlciBDbGVhcmluZyBTeXN0ZW0=</t>
+  </si>
+  <si>
+    <t>U0RSUw==</t>
+  </si>
+  <si>
+    <t>U2FsZXMgRGVwYXJ0bWVudCBSZXBvcnRpbmcgU3lzdGVt</t>
   </si>
   <si>
     <t>VUNS</t>
@@ -254,43 +260,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09096EE-6CA8-412E-90D2-FDE35E5F5D3D}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{C09096EE-6CA8-412E-90D2-FDE35E5F5D3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7A1BA64-1B39-4910-BE3E-96BFF6640CED}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{E7A1BA64-1B39-4910-BE3E-96BFF6640CED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1897498F-5EEE-457F-9983-0BB274B57A3D}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{0B060A4C-A597-4843-B5C7-DB4AAF0CBCA5}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FF6AB88-FF20-4898-81B0-54F7046CD037}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{4FF6AB88-FF20-4898-81B0-54F7046CD037}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B580ED55-141E-4F9F-BC1C-95E9C8A6C22C}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{B580ED55-141E-4F9F-BC1C-95E9C8A6C22C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3A612E01-D698-428B-8855-B7158EACEA24}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{5A272FCC-7536-47FE-890E-EDD6D628464A}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1582D9E-ECB2-48FC-98E2-BF40335BBF3F}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18" xr:uid="{B1582D9E-ECB2-48FC-98E2-BF40335BBF3F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
-    <sortCondition ref="A2:A18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC1762DB-FCA3-4E7A-AA97-C5A605C6569E}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{DC1762DB-FCA3-4E7A-AA97-C5A605C6569E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{22AF5E5C-3514-41F2-B05A-8ACCFA0F59A2}" name="System"/>
-    <tableColumn id="5" xr3:uid="{BCD71EDD-5989-4B55-8520-15AAAA3EBB56}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7EE8E6F6-6E7B-48AC-B0EF-25B85D70E120}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D09D66D3-E73C-46FF-93EE-FD02491C750C}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9618C904-C5D0-4D0E-815E-764B3878ED32}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2F1E3B6C-4CA9-48F2-BD70-38256FCC63A1}" name="System"/>
+    <tableColumn id="5" xr3:uid="{AC27E12A-F1D6-41EB-B2AD-6D9117C1D7EE}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3446A97B-399B-4114-969E-2B4CFE319D00}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BDA48141-72CF-4782-AAE1-FA9D11CD4A60}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AD382CA8-C63C-45DA-A9E2-8A90370DCE17}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49477DA9-F1DB-41AF-AA9F-4BE3103739DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB12A32C-9813-46CB-9049-969CC7BDE54F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -621,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27C3A40-FD0B-4B61-BE21-BD9D26AFB521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0E2E77-91F6-4ACB-B96D-9AD9C490B553}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -650,8 +656,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441AE6E1-DE8E-4702-A692-EB12BDF4E587}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F99D2B3-A2B0-4F7C-956A-1D57DEEB52A6}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,7 +667,7 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -968,6 +974,23 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7412E435-9802-4CE8-8F21-CEFEA6E4BE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89852B-D2F1-4E6A-B3E1-7C402648BBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6EC62AD7-D71E-4157-9955-D01787CC5FC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D3199BAF-7700-46FF-A221-14DF0478D9A1}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Language</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>SW52b2ljZSBEYXRhYmFzZQ==</t>
+  </si>
+  <si>
+    <t>TVBEQg==</t>
+  </si>
+  <si>
+    <t>TWFya2V0aW5nIFByb21vdGlvbnMgRGF0YWJhc2U=</t>
   </si>
   <si>
     <t>TVBQQ1I=</t>
@@ -260,43 +266,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7A1BA64-1B39-4910-BE3E-96BFF6640CED}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{E7A1BA64-1B39-4910-BE3E-96BFF6640CED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2B30B88-ACEC-4853-A1AF-28641E87B804}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{F2B30B88-ACEC-4853-A1AF-28641E87B804}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0B060A4C-A597-4843-B5C7-DB4AAF0CBCA5}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{315A88AD-7DCE-4CD5-A321-BCF3761BC3B7}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B580ED55-141E-4F9F-BC1C-95E9C8A6C22C}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{B580ED55-141E-4F9F-BC1C-95E9C8A6C22C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D443B7E3-5E9F-4A3F-B71C-586695A83A7C}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{D443B7E3-5E9F-4A3F-B71C-586695A83A7C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5A272FCC-7536-47FE-890E-EDD6D628464A}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{6CB22786-3E43-4497-BFFF-28E0C976D67B}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC1762DB-FCA3-4E7A-AA97-C5A605C6569E}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19" xr:uid="{DC1762DB-FCA3-4E7A-AA97-C5A605C6569E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
-    <sortCondition ref="A2:A19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C52AF987-F23F-4825-9FE0-538A70F5FA83}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{C52AF987-F23F-4825-9FE0-538A70F5FA83}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2F1E3B6C-4CA9-48F2-BD70-38256FCC63A1}" name="System"/>
-    <tableColumn id="5" xr3:uid="{AC27E12A-F1D6-41EB-B2AD-6D9117C1D7EE}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3446A97B-399B-4114-969E-2B4CFE319D00}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BDA48141-72CF-4782-AAE1-FA9D11CD4A60}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{AD382CA8-C63C-45DA-A9E2-8A90370DCE17}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6221E787-92FB-4D1C-B4BD-9730F181D285}" name="System"/>
+    <tableColumn id="5" xr3:uid="{8F065266-632C-4DA2-B1BF-E885642AD778}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A60EB396-52A6-48C2-83D9-F58EB5A8619B}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CACB677C-AB7E-4F5B-93D1-5E88D1FEFE1C}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DC0235B4-D0F5-4BE0-8A2D-529D6951CEEF}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -598,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB12A32C-9813-46CB-9049-969CC7BDE54F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EB4587-AA57-468B-9B46-9EA4A742CE80}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -627,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0E2E77-91F6-4ACB-B96D-9AD9C490B553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38FEE4A-D443-48F5-AA1C-5734B2759534}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -656,8 +662,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F99D2B3-A2B0-4F7C-956A-1D57DEEB52A6}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F8B60E-DE6D-43D1-8742-D696CB4E9DAB}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,38 +877,38 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -922,21 +928,21 @@
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -991,6 +997,23 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89852B-D2F1-4E6A-B3E1-7C402648BBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C0324D-D204-4FD1-A42D-0CC890E94F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D3199BAF-7700-46FF-A221-14DF0478D9A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D7DB31C8-9C27-40CC-8D2D-404DADA5F4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Language</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>SW52b2ljZSBEYXRhYmFzZQ==</t>
-  </si>
-  <si>
-    <t>TVBEQg==</t>
-  </si>
-  <si>
-    <t>TWFya2V0aW5nIFByb21vdGlvbnMgRGF0YWJhc2U=</t>
   </si>
   <si>
     <t>TVBQQ1I=</t>
@@ -266,43 +260,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2B30B88-ACEC-4853-A1AF-28641E87B804}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{F2B30B88-ACEC-4853-A1AF-28641E87B804}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94C6B559-853E-462B-94EF-0C0DFB439F30}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{94C6B559-853E-462B-94EF-0C0DFB439F30}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{315A88AD-7DCE-4CD5-A321-BCF3761BC3B7}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{38059F56-5123-43E1-A0C5-4FD949278945}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D443B7E3-5E9F-4A3F-B71C-586695A83A7C}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{D443B7E3-5E9F-4A3F-B71C-586695A83A7C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B849DE7F-4B49-46CD-B1AC-F85B12F48F56}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{B849DE7F-4B49-46CD-B1AC-F85B12F48F56}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6CB22786-3E43-4497-BFFF-28E0C976D67B}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{7E3D1562-B741-40D8-A3CC-BE3381020549}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C52AF987-F23F-4825-9FE0-538A70F5FA83}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E20" totalsRowShown="0">
-  <autoFilter ref="A1:E20" xr:uid="{C52AF987-F23F-4825-9FE0-538A70F5FA83}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
-    <sortCondition ref="A2:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15B7CDC6-7337-42D4-8714-5A1A992B6C14}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{15B7CDC6-7337-42D4-8714-5A1A992B6C14}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6221E787-92FB-4D1C-B4BD-9730F181D285}" name="System"/>
-    <tableColumn id="5" xr3:uid="{8F065266-632C-4DA2-B1BF-E885642AD778}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A60EB396-52A6-48C2-83D9-F58EB5A8619B}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CACB677C-AB7E-4F5B-93D1-5E88D1FEFE1C}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DC0235B4-D0F5-4BE0-8A2D-529D6951CEEF}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5F5CB49C-20BD-4F41-BFAA-4B610F807228}" name="System"/>
+    <tableColumn id="5" xr3:uid="{6C4AD383-3DF3-46AB-A4D5-8799D3CB26EF}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{84906606-29B3-4B65-9823-17305DE0CDC2}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C57D8AA5-B9D7-4FFD-92A7-013A95650659}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{30129318-435A-48DE-9150-1FE71032A8E4}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EB4587-AA57-468B-9B46-9EA4A742CE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342BACDD-E96F-46B6-A83F-2B0FBD25AF48}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -633,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38FEE4A-D443-48F5-AA1C-5734B2759534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFBFA13-E3E0-46D8-B300-2BC6966E29E0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -662,8 +656,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F8B60E-DE6D-43D1-8742-D696CB4E9DAB}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD0E12F-C226-41F0-B119-B9721AB4F82B}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,12 +871,12 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -891,15 +885,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -908,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -928,12 +922,12 @@
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -942,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -997,23 +991,6 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C0324D-D204-4FD1-A42D-0CC890E94F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AE6D9C-02D6-4AE0-A87F-6A81C248D90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D7DB31C8-9C27-40CC-8D2D-404DADA5F4F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2B3D05BF-9DFE-4B75-8477-550FB9BCC85D}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Language</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>UVIgQ29kZSBHZW5lcmF0b3I=</t>
+  </si>
+  <si>
+    <t>UlNS</t>
+  </si>
+  <si>
+    <t>UmFua2VkIFNhbGVzIFJlcG9ydA==</t>
   </si>
   <si>
     <t>U0RB</t>
@@ -260,43 +266,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94C6B559-853E-462B-94EF-0C0DFB439F30}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{94C6B559-853E-462B-94EF-0C0DFB439F30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9520ABDC-971E-4C77-BE9F-8FF2DB7F75EB}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{9520ABDC-971E-4C77-BE9F-8FF2DB7F75EB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{38059F56-5123-43E1-A0C5-4FD949278945}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{F76964A6-9251-456F-8A5B-D49A0ADAB02A}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B849DE7F-4B49-46CD-B1AC-F85B12F48F56}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{B849DE7F-4B49-46CD-B1AC-F85B12F48F56}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{706361F9-43DA-4F39-AB53-B01AB36DA8E3}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{706361F9-43DA-4F39-AB53-B01AB36DA8E3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7E3D1562-B741-40D8-A3CC-BE3381020549}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{D75FE8AF-9914-4EF8-8299-89D7EFAADEA2}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15B7CDC6-7337-42D4-8714-5A1A992B6C14}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19" xr:uid="{15B7CDC6-7337-42D4-8714-5A1A992B6C14}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
-    <sortCondition ref="A2:A19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5995034A-AE77-4390-B6A7-B85D895CF9AD}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{5995034A-AE77-4390-B6A7-B85D895CF9AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5F5CB49C-20BD-4F41-BFAA-4B610F807228}" name="System"/>
-    <tableColumn id="5" xr3:uid="{6C4AD383-3DF3-46AB-A4D5-8799D3CB26EF}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{84906606-29B3-4B65-9823-17305DE0CDC2}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C57D8AA5-B9D7-4FFD-92A7-013A95650659}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{30129318-435A-48DE-9150-1FE71032A8E4}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9363798B-4CFB-4034-82AF-09843AF51C1B}" name="System"/>
+    <tableColumn id="5" xr3:uid="{9B9713C8-F945-4422-976C-86C88486A8D2}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{06E7BFB6-54F5-42E4-96C9-1F7E2296CCE1}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4630EA5E-1F32-4CE9-99E2-F8C84185B794}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1AE36EAE-1818-4A1D-AE11-DE30EADEB2B2}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -598,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342BACDD-E96F-46B6-A83F-2B0FBD25AF48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0F54E-CD15-4CB2-8244-F77FC4906C95}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -627,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFBFA13-E3E0-46D8-B300-2BC6966E29E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132F1873-221B-4243-86C3-7AC1D25B2854}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -656,8 +662,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD0E12F-C226-41F0-B119-B9721AB4F82B}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B0B37C-FB0B-47AB-B2F7-3A22F9BFD1AD}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,21 +928,21 @@
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -991,6 +997,23 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AE6D9C-02D6-4AE0-A87F-6A81C248D90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093D9F2-0FB9-4FA6-A075-7AE7D6E70C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2B3D05BF-9DFE-4B75-8477-550FB9BCC85D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{82BDE297-9445-41FE-A0AB-F5B63086C93A}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>QVNS</t>
   </si>
   <si>
-    <t>QWdncmVnYXRlZCBTYWxlcyBSZXBvcnQ=</t>
+    <t>QWRqdXN0ZWQgU2FsZXMgUmVwb3J0</t>
   </si>
   <si>
     <t>QkNEQg==</t>
@@ -266,43 +266,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9520ABDC-971E-4C77-BE9F-8FF2DB7F75EB}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{9520ABDC-971E-4C77-BE9F-8FF2DB7F75EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC0FF0C0-ED03-41F2-994F-7AA5BFF0FF28}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{AC0FF0C0-ED03-41F2-994F-7AA5BFF0FF28}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F76964A6-9251-456F-8A5B-D49A0ADAB02A}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{226A430B-C471-47BA-A651-A8786F50AE39}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{706361F9-43DA-4F39-AB53-B01AB36DA8E3}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{706361F9-43DA-4F39-AB53-B01AB36DA8E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{434E5376-E3ED-407F-AAAC-C63FC92427A1}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{434E5376-E3ED-407F-AAAC-C63FC92427A1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D75FE8AF-9914-4EF8-8299-89D7EFAADEA2}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{BEFF721B-918C-4DCE-BDCA-FDA71AE7EB2F}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5995034A-AE77-4390-B6A7-B85D895CF9AD}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E20" totalsRowShown="0">
-  <autoFilter ref="A1:E20" xr:uid="{5995034A-AE77-4390-B6A7-B85D895CF9AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{11FE8E54-924E-4071-8E90-174138E38040}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{11FE8E54-924E-4071-8E90-174138E38040}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
     <sortCondition ref="A2:A20"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9363798B-4CFB-4034-82AF-09843AF51C1B}" name="System"/>
-    <tableColumn id="5" xr3:uid="{9B9713C8-F945-4422-976C-86C88486A8D2}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{06E7BFB6-54F5-42E4-96C9-1F7E2296CCE1}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4630EA5E-1F32-4CE9-99E2-F8C84185B794}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1AE36EAE-1818-4A1D-AE11-DE30EADEB2B2}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2025921F-6CEA-46EA-9061-7F5574C0FD51}" name="System"/>
+    <tableColumn id="5" xr3:uid="{FEB9812F-461E-4835-B625-1EF41B2A09E6}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{66FB8E35-0834-4FD3-A771-AFDE1F501F3B}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E335D583-1D52-4D55-AC82-D68C329295D9}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{716AFFA5-4EC8-4AF7-908B-5A91DD6B4F7D}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0F54E-CD15-4CB2-8244-F77FC4906C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035EC926-1EE4-443C-B501-AAC5C4AF8C18}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132F1873-221B-4243-86C3-7AC1D25B2854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7FE6D4-FD56-438A-815E-91067305460D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -662,7 +662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B0B37C-FB0B-47AB-B2F7-3A22F9BFD1AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CC3701-F1E0-4B85-A3DE-D96C94F3EB59}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093D9F2-0FB9-4FA6-A075-7AE7D6E70C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD0F96B-6879-4B13-8B01-D9B4C911C80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{82BDE297-9445-41FE-A0AB-F5B63086C93A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7863F91C-9E0A-4C06-BD65-0B97B11C8C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>Language</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>SW52b2ljZSBEYXRhYmFzZQ==</t>
+  </si>
+  <si>
+    <t>TFNS</t>
+  </si>
+  <si>
+    <t>TG9jYXRpb24gU2FsZXMgUmVwb3J0</t>
   </si>
   <si>
     <t>TVBQQ1I=</t>
@@ -266,43 +272,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC0FF0C0-ED03-41F2-994F-7AA5BFF0FF28}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{AC0FF0C0-ED03-41F2-994F-7AA5BFF0FF28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{165C000D-3FF0-45AF-A138-C25A741B2465}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{165C000D-3FF0-45AF-A138-C25A741B2465}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{226A430B-C471-47BA-A651-A8786F50AE39}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{C76C9C05-83FD-48A7-9187-D1827CB14797}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{434E5376-E3ED-407F-AAAC-C63FC92427A1}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{434E5376-E3ED-407F-AAAC-C63FC92427A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88E74E45-5AF0-4A6E-83DA-745A9A8591D4}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{88E74E45-5AF0-4A6E-83DA-745A9A8591D4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BEFF721B-918C-4DCE-BDCA-FDA71AE7EB2F}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{FB23ABAC-B063-4AD6-B0A1-16FF7F94F4C9}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{11FE8E54-924E-4071-8E90-174138E38040}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E20" totalsRowShown="0">
-  <autoFilter ref="A1:E20" xr:uid="{11FE8E54-924E-4071-8E90-174138E38040}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
-    <sortCondition ref="A2:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{289CC856-B97D-4AD0-BEC1-5F8FF11A75BE}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E21" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{289CC856-B97D-4AD0-BEC1-5F8FF11A75BE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2025921F-6CEA-46EA-9061-7F5574C0FD51}" name="System"/>
-    <tableColumn id="5" xr3:uid="{FEB9812F-461E-4835-B625-1EF41B2A09E6}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{66FB8E35-0834-4FD3-A771-AFDE1F501F3B}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E335D583-1D52-4D55-AC82-D68C329295D9}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{716AFFA5-4EC8-4AF7-908B-5A91DD6B4F7D}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{849DD593-C38E-47F2-AA05-F26152D52766}" name="System"/>
+    <tableColumn id="5" xr3:uid="{EF45DEF8-E6DD-436A-ABA0-3EFAC9C24AE8}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DB400BC0-40C8-482C-9ABC-B03D9995E837}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A26BAC22-0B40-410A-AE61-DF34B584E140}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{40104469-A0A0-468B-9BF5-BEEAF5938010}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035EC926-1EE4-443C-B501-AAC5C4AF8C18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376F786-20CF-4CBA-8D22-CEF336930DCA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -633,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7FE6D4-FD56-438A-815E-91067305460D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C641D5-481D-4F86-BBC5-082EFCA09ADC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -662,8 +668,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CC3701-F1E0-4B85-A3DE-D96C94F3EB59}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32915E0B-9065-493A-8A74-9575D93874C4}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,38 +883,38 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -945,21 +951,21 @@
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
@@ -1014,6 +1020,23 @@
       </c>
       <c r="E20" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD0F96B-6879-4B13-8B01-D9B4C911C80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A475A613-A35E-4861-A7EE-4AF80C37DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7863F91C-9E0A-4C06-BD65-0B97B11C8C0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9DC973F9-5B2D-467E-B908-FA849E94309B}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Language</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Q2xpZW50IExpc3RzIEFuYWx5c2lz</t>
+  </si>
+  <si>
+    <t>Q1NS</t>
+  </si>
+  <si>
+    <t>Q2xpZW50IFNhbGVzIFJlcG9ydA==</t>
   </si>
   <si>
     <t>RENMUg==</t>
@@ -272,43 +278,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{165C000D-3FF0-45AF-A138-C25A741B2465}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{165C000D-3FF0-45AF-A138-C25A741B2465}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8A45D43-2BA2-4E00-926B-97831ED27510}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{C8A45D43-2BA2-4E00-926B-97831ED27510}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C76C9C05-83FD-48A7-9187-D1827CB14797}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{E81BB6D9-A5FF-481D-A55C-642BE13FCB15}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88E74E45-5AF0-4A6E-83DA-745A9A8591D4}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{88E74E45-5AF0-4A6E-83DA-745A9A8591D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA09C110-0C29-496B-99D1-A5A037281722}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{FA09C110-0C29-496B-99D1-A5A037281722}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FB23ABAC-B063-4AD6-B0A1-16FF7F94F4C9}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{8B338E3B-C6E5-42C3-B9BA-AF690D67E5CD}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{289CC856-B97D-4AD0-BEC1-5F8FF11A75BE}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E21" totalsRowShown="0">
-  <autoFilter ref="A1:E21" xr:uid="{289CC856-B97D-4AD0-BEC1-5F8FF11A75BE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="A2:A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{552BEC37-92FB-4625-A59E-0D06A9860A19}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{552BEC37-92FB-4625-A59E-0D06A9860A19}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{849DD593-C38E-47F2-AA05-F26152D52766}" name="System"/>
-    <tableColumn id="5" xr3:uid="{EF45DEF8-E6DD-436A-ABA0-3EFAC9C24AE8}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DB400BC0-40C8-482C-9ABC-B03D9995E837}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A26BAC22-0B40-410A-AE61-DF34B584E140}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{40104469-A0A0-468B-9BF5-BEEAF5938010}" name="Report_Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2F684EE8-C6C6-41F1-9E98-656B67C95649}" name="System"/>
+    <tableColumn id="5" xr3:uid="{74028570-0BF9-4196-9530-9DDF11B58B4C}" name="Language" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{193F1078-84AC-4A6E-80F4-FC62275EB01E}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00C0E926-9508-4E29-BE7E-6C6CAD3C5052}" name="Long_Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1836DC51-C5C2-4918-A3B2-DC92BB7DE8EB}" name="Report_Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,7 +616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376F786-20CF-4CBA-8D22-CEF336930DCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB6F3FA-9481-4F25-86F5-70B9F315E412}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -639,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C641D5-481D-4F86-BBC5-082EFCA09ADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A773FA29-6E7F-4B50-9B08-9EDFA5E11165}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -668,8 +674,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32915E0B-9065-493A-8A74-9575D93874C4}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11ABF20-948B-40FD-88C2-B47E3DB6E4CD}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,55 +804,55 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -900,38 +906,38 @@
         <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
@@ -968,21 +974,21 @@
         <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -1037,6 +1043,23 @@
       </c>
       <c r="E21" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A475A613-A35E-4861-A7EE-4AF80C37DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFAA54C-72FE-48C7-9543-99C836A235D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9DC973F9-5B2D-467E-B908-FA849E94309B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4E6441EA-97E6-4E78-B308-5703A18BF886}"/>
   </bookViews>
   <sheets>
-    <sheet name="LANGUAGES" sheetId="2" r:id="rId1"/>
-    <sheet name="PLATFORMS" sheetId="3" r:id="rId2"/>
-    <sheet name="SYSTEMS" sheetId="4" r:id="rId3"/>
+    <sheet name="TYPES" sheetId="2" r:id="rId1"/>
+    <sheet name="LANGUAGES" sheetId="3" r:id="rId2"/>
+    <sheet name="PLATFORMS" sheetId="4" r:id="rId3"/>
+    <sheet name="SYSTEMS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>RGF0YSBDb252ZXJ0ZXIgU3Vic3lzdGVt</t>
+  </si>
+  <si>
+    <t>RGF0YSBRdWFsaXR5IEFuYWx5c2lzIFN1YnN5c3RlbQ==</t>
+  </si>
+  <si>
+    <t>RGF0YSBRdWFsaXR5IEVucmljaG1lbnQgU3Vic3lzdGVt</t>
+  </si>
+  <si>
+    <t>RXhlY3V0aXZlIENvbnRyb2wgU3lzdGVt</t>
+  </si>
+  <si>
+    <t>RmlsZSBTeXN0ZW0gQ2xlYW5pbmcgU3Vic3lzdGVt</t>
+  </si>
+  <si>
+    <t>SW5mcmFzdHJ1Y3R1cmUgTW9uaXRvcmluZyBTeXN0ZW0=</t>
+  </si>
+  <si>
+    <t>T2JqZWN0IEdlbmVyYXRpb24gU3Vic3lzdGVt</t>
+  </si>
+  <si>
+    <t>UGFyYWxsZWwgRGF0YWJhc2UgU3lzdGVt</t>
+  </si>
+  <si>
+    <t>UmVwb3J0aW5nIFN1YnN5c3RlbQ==</t>
+  </si>
+  <si>
+    <t>U29mdHdhcmUgQ29udGFpbmVyIFN1YnN5c3RlbQ==</t>
+  </si>
+  <si>
+    <t>U3Vic3lzdGVtIEFnZ3JlZ2F0aW9uIFN5c3RlbQ==</t>
+  </si>
   <si>
     <t>Language</t>
   </si>
@@ -251,7 +288,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -278,43 +318,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8A45D43-2BA2-4E00-926B-97831ED27510}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{C8A45D43-2BA2-4E00-926B-97831ED27510}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{933B0134-CD7E-4254-9B81-19E9736101D7}" name="TYPES" displayName="TYPES" ref="A1:A12" totalsRowShown="0">
+  <autoFilter ref="A1:A12" xr:uid="{933B0134-CD7E-4254-9B81-19E9736101D7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E81BB6D9-A5FF-481D-A55C-642BE13FCB15}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{9C342AD5-16B0-4A7D-B6AA-9AA63EC7045E}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA09C110-0C29-496B-99D1-A5A037281722}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{FA09C110-0C29-496B-99D1-A5A037281722}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65B2D50D-9CF9-4429-898E-090BCAAFAA67}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{65B2D50D-9CF9-4429-898E-090BCAAFAA67}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8B338E3B-C6E5-42C3-B9BA-AF690D67E5CD}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{BB4FFC9D-4C1F-4B78-8451-90DA0AB06EEF}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{552BEC37-92FB-4625-A59E-0D06A9860A19}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:E22" totalsRowShown="0">
-  <autoFilter ref="A1:E22" xr:uid="{552BEC37-92FB-4625-A59E-0D06A9860A19}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
-    <sortCondition ref="A2:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A71DC17D-3333-43B4-9693-6DF7D6A4BA35}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{A71DC17D-3333-43B4-9693-6DF7D6A4BA35}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
+    <sortCondition ref="A2"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2F684EE8-C6C6-41F1-9E98-656B67C95649}" name="System"/>
-    <tableColumn id="5" xr3:uid="{74028570-0BF9-4196-9530-9DDF11B58B4C}" name="Language" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{193F1078-84AC-4A6E-80F4-FC62275EB01E}" name="Platform" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00C0E926-9508-4E29-BE7E-6C6CAD3C5052}" name="Long_Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1836DC51-C5C2-4918-A3B2-DC92BB7DE8EB}" name="Report_Name" dataDxfId="0"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{2EC9AB95-CA8F-4080-AF1B-A53F31F96F3B}" name="Platform"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABEC8A87-CD1C-405B-A077-B033BECF5DC5}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22" xr:uid="{ABEC8A87-CD1C-405B-A077-B033BECF5DC5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{49389A6E-AC7A-4B37-AB78-ACA1166D204D}" name="System"/>
+    <tableColumn id="5" xr3:uid="{292133AB-49F3-40B3-8D8F-2FC997DAB063}" name="Language" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3F821AD3-E007-44AB-B1C9-546CBFAFCDCE}" name="Platform" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3ABE5CD9-A7BA-4945-8893-1B8EDFAE6DCB}" name="Long_Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8F8F680A-490F-45BB-94F5-1F8E283E8E0B}" name="Report_Name" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{681C0BF8-E2C1-4C12-8EC4-74413590EE23}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,7 +670,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB6F3FA-9481-4F25-86F5-70B9F315E412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C81B9D-FD04-423F-BEED-DC20832A6A2A}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AF9DBF-448F-4892-B8D5-DCCD27A2BA09}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -628,12 +761,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -644,8 +777,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A773FA29-6E7F-4B50-9B08-9EDFA5E11165}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21B6E40-8C59-448B-8C81-CD6E45241E77}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -657,12 +790,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -673,9 +806,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11ABF20-948B-40FD-88C2-B47E3DB6E4CD}">
-  <dimension ref="A1:E22"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C89C63-A033-47D5-9083-4D5F3C2D265F}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,380 +819,447 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFAA54C-72FE-48C7-9543-99C836A235D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651E853-FE3B-46E9-A098-6F90F5EAD508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4E6441EA-97E6-4E78-B308-5703A18BF886}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C0FCB27E-38B5-4236-BCC8-3B7E77A41BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPES" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
   <si>
     <t>Type</t>
   </si>
@@ -190,15 +190,6 @@
   </si>
   <si>
     <t>UGljdHVyZSBDb3VudCBTeXN0ZW0=</t>
-  </si>
-  <si>
-    <t>UFBNUw==</t>
-  </si>
-  <si>
-    <t>UHJvZHVjdCBQb3J0Zm9saW8gTW9uaXRvcmluZyBTeXN0ZW0=</t>
-  </si>
-  <si>
-    <t>UHJvZHVjdCBQb3J0Zm9saW8gUmVwb3J0cw==</t>
   </si>
   <si>
     <t>UVJDR0VO</t>
@@ -318,57 +309,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{933B0134-CD7E-4254-9B81-19E9736101D7}" name="TYPES" displayName="TYPES" ref="A1:A12" totalsRowShown="0">
-  <autoFilter ref="A1:A12" xr:uid="{933B0134-CD7E-4254-9B81-19E9736101D7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
-    <sortCondition ref="A1:A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64FC3CD5-E377-4860-9CAD-E31A14BC3658}" name="TYPES" displayName="TYPES" ref="A1:A12" totalsRowShown="0">
+  <autoFilter ref="A1:A12" xr:uid="{64FC3CD5-E377-4860-9CAD-E31A14BC3658}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A2:A12"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9C342AD5-16B0-4A7D-B6AA-9AA63EC7045E}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{EBF2298D-3008-4CA0-B6F2-85095B299432}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65B2D50D-9CF9-4429-898E-090BCAAFAA67}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{65B2D50D-9CF9-4429-898E-090BCAAFAA67}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5972492E-B4C8-4D83-B337-BDE113EC6C6A}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{5972492E-B4C8-4D83-B337-BDE113EC6C6A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BB4FFC9D-4C1F-4B78-8451-90DA0AB06EEF}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{7F1E71A1-2F14-49DF-BFEC-FF08F642FBEB}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A71DC17D-3333-43B4-9693-6DF7D6A4BA35}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{A71DC17D-3333-43B4-9693-6DF7D6A4BA35}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9989020D-92E6-42FD-BB40-F6BBABAD5F2C}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{9989020D-92E6-42FD-BB40-F6BBABAD5F2C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2EC9AB95-CA8F-4080-AF1B-A53F31F96F3B}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{3BBD19CD-B6B6-487A-8FFF-28ACD2CF65AB}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABEC8A87-CD1C-405B-A077-B033BECF5DC5}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F22" totalsRowShown="0">
-  <autoFilter ref="A1:F22" xr:uid="{ABEC8A87-CD1C-405B-A077-B033BECF5DC5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
-    <sortCondition ref="A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F4BD8DA-D2EC-4B92-BC03-7CA6B19E4794}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{1F4BD8DA-D2EC-4B92-BC03-7CA6B19E4794}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{49389A6E-AC7A-4B37-AB78-ACA1166D204D}" name="System"/>
-    <tableColumn id="5" xr3:uid="{292133AB-49F3-40B3-8D8F-2FC997DAB063}" name="Language" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3F821AD3-E007-44AB-B1C9-546CBFAFCDCE}" name="Platform" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3ABE5CD9-A7BA-4945-8893-1B8EDFAE6DCB}" name="Long_Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8F8F680A-490F-45BB-94F5-1F8E283E8E0B}" name="Report_Name" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{681C0BF8-E2C1-4C12-8EC4-74413590EE23}" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B38F7F5F-BEB4-40B9-BF1E-AC34649BAED2}" name="System"/>
+    <tableColumn id="5" xr3:uid="{7A9C5BBA-702A-4795-A976-832D8226B79C}" name="Language" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8686CC43-8B3C-44E7-A422-852D3E3E502F}" name="Platform" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BD061264-6AC4-4ABB-940A-4CE97B04D4DD}" name="Long_Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0A3F9FD7-5D75-42CC-A3EC-919009F0129F}" name="Report_Name" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9C0B5B3F-8CF5-4AF5-9D2E-23F65D4D6FDD}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -670,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C81B9D-FD04-423F-BEED-DC20832A6A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118D62AB-5E9B-4557-8B77-0732FE368336}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -749,7 +740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AF9DBF-448F-4892-B8D5-DCCD27A2BA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA1E33F-EDE3-489E-A059-29118BAA9C46}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -778,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21B6E40-8C59-448B-8C81-CD6E45241E77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15862CB8-8364-4662-BEDF-0A482F8BF348}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -807,8 +798,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C89C63-A033-47D5-9083-4D5F3C2D265F}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCCB01-01BC-4F2F-8107-CF1568797E71}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1116,50 +1107,50 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1176,89 +1167,69 @@
         <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651E853-FE3B-46E9-A098-6F90F5EAD508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A04C20-4DFA-4CDF-ACD2-099B5EB5B2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C0FCB27E-38B5-4236-BCC8-3B7E77A41BE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3675CF0B-338C-4CCE-B53F-2FCC17A51173}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPES" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>Type</t>
   </si>
@@ -51,6 +51,9 @@
     <t>RGF0YSBRdWFsaXR5IEVucmljaG1lbnQgU3Vic3lzdGVt</t>
   </si>
   <si>
+    <t>RWR1Y2F0aW9uYWwgU3Vic3lzdGVt</t>
+  </si>
+  <si>
     <t>RXhlY3V0aXZlIENvbnRyb2wgU3lzdGVt</t>
   </si>
   <si>
@@ -235,6 +238,12 @@
   </si>
   <si>
     <t>VW5pdmVyc2FsIFN5c3RlbSBDb250YWluZXI=</t>
+  </si>
+  <si>
+    <t>WExGRVM=</t>
+  </si>
+  <si>
+    <t>RXhjZWwgRnVuY3Rpb25zIEVkdWNhdGlvbmFsIFN5c3RlbQ==</t>
   </si>
 </sst>
 </file>
@@ -309,57 +318,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64FC3CD5-E377-4860-9CAD-E31A14BC3658}" name="TYPES" displayName="TYPES" ref="A1:A12" totalsRowShown="0">
-  <autoFilter ref="A1:A12" xr:uid="{64FC3CD5-E377-4860-9CAD-E31A14BC3658}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
-    <sortCondition ref="A2:A12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{979EB047-B4B6-41C5-AFFF-AF36F4256EA5}" name="TYPES" displayName="TYPES" ref="A1:A13" totalsRowShown="0">
+  <autoFilter ref="A1:A13" xr:uid="{979EB047-B4B6-41C5-AFFF-AF36F4256EA5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EBF2298D-3008-4CA0-B6F2-85095B299432}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{6745EE0D-1CF2-48E2-9517-CFECD4971A29}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5972492E-B4C8-4D83-B337-BDE113EC6C6A}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{5972492E-B4C8-4D83-B337-BDE113EC6C6A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6E4E8F6-DD34-4252-8FD2-9DA9077D724C}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{F6E4E8F6-DD34-4252-8FD2-9DA9077D724C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7F1E71A1-2F14-49DF-BFEC-FF08F642FBEB}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{4C6D4DAF-5633-4EA0-AC39-6FC8981B64C5}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9989020D-92E6-42FD-BB40-F6BBABAD5F2C}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{9989020D-92E6-42FD-BB40-F6BBABAD5F2C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C73F09B8-364C-4193-AB52-D9AC0142E95B}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{C73F09B8-364C-4193-AB52-D9AC0142E95B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3BBD19CD-B6B6-487A-8FFF-28ACD2CF65AB}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{4334673D-6409-44F0-ABBF-9DD4FC5851FE}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F4BD8DA-D2EC-4B92-BC03-7CA6B19E4794}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{1F4BD8DA-D2EC-4B92-BC03-7CA6B19E4794}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
-    <sortCondition ref="A2:A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FF2ECC-CDC3-4332-9951-B3F79F69B4AF}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22" xr:uid="{76FF2ECC-CDC3-4332-9951-B3F79F69B4AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B38F7F5F-BEB4-40B9-BF1E-AC34649BAED2}" name="System"/>
-    <tableColumn id="5" xr3:uid="{7A9C5BBA-702A-4795-A976-832D8226B79C}" name="Language" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8686CC43-8B3C-44E7-A422-852D3E3E502F}" name="Platform" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{BD061264-6AC4-4ABB-940A-4CE97B04D4DD}" name="Long_Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0A3F9FD7-5D75-42CC-A3EC-919009F0129F}" name="Report_Name" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9C0B5B3F-8CF5-4AF5-9D2E-23F65D4D6FDD}" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{139435B6-9535-4692-ACB5-DA723C15DBF6}" name="System"/>
+    <tableColumn id="5" xr3:uid="{D59CCB3F-0427-44C4-8C9C-D4CABC7BDB26}" name="Language" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{CF3935DA-0763-4679-8E3B-0A41782B58D4}" name="Platform" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0E3CAF64-F62F-400B-9A6F-A87A3645757F}" name="Long_Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E2CE9C90-FC00-413B-BD61-7391997E6B5F}" name="Report_Name" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8CC82FC6-9052-4BAC-9962-DC653B9E7829}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -661,8 +670,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118D62AB-5E9B-4557-8B77-0732FE368336}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B407E-BD93-4F8C-9DBE-27E116969ED7}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -731,6 +740,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -740,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA1E33F-EDE3-489E-A059-29118BAA9C46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47336B55-8897-4672-84B2-2599DF053F84}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -752,12 +766,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15862CB8-8364-4662-BEDF-0A482F8BF348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A4632D-9D32-44BD-BA76-796080467230}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -781,12 +795,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -798,8 +812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCCB01-01BC-4F2F-8107-CF1568797E71}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FEC422-2F97-4754-9E96-DB5DD4802120}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,25 +823,25 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -835,159 +849,159 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>2</v>
@@ -995,19 +1009,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
@@ -1015,199 +1029,199 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
@@ -1215,22 +1229,42 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A04C20-4DFA-4CDF-ACD2-099B5EB5B2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81853AB-C0F1-44E2-9594-12A06B4CC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3675CF0B-338C-4CCE-B53F-2FCC17A51173}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{813FE06C-ACEF-4099-9A12-E2908B4391D8}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPES" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
   <si>
     <t>Type</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>UVIgQ29kZSBHZW5lcmF0b3I=</t>
+  </si>
+  <si>
+    <t>UlNFUg==</t>
+  </si>
+  <si>
+    <t>UmFua2VkIFNhbGVzIEV4dGVuZGVkIFJlcG9ydA==</t>
   </si>
   <si>
     <t>UlNS</t>
@@ -318,57 +324,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{979EB047-B4B6-41C5-AFFF-AF36F4256EA5}" name="TYPES" displayName="TYPES" ref="A1:A13" totalsRowShown="0">
-  <autoFilter ref="A1:A13" xr:uid="{979EB047-B4B6-41C5-AFFF-AF36F4256EA5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
-    <sortCondition ref="A2:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14ADE542-D06D-4B24-B34F-B783639F173B}" name="TYPES" displayName="TYPES" ref="A1:A13" totalsRowShown="0">
+  <autoFilter ref="A1:A13" xr:uid="{14ADE542-D06D-4B24-B34F-B783639F173B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
+    <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6745EE0D-1CF2-48E2-9517-CFECD4971A29}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{F23C50BF-D58C-4C9E-A2DB-F2C59B195910}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6E4E8F6-DD34-4252-8FD2-9DA9077D724C}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{F6E4E8F6-DD34-4252-8FD2-9DA9077D724C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07979B29-6EE8-4DC7-84F8-A0772469B2CC}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{07979B29-6EE8-4DC7-84F8-A0772469B2CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4C6D4DAF-5633-4EA0-AC39-6FC8981B64C5}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{02C50630-0FEC-4AB4-96E7-09AB59BC9A13}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C73F09B8-364C-4193-AB52-D9AC0142E95B}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{C73F09B8-364C-4193-AB52-D9AC0142E95B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{36C11E27-EB49-4A61-9A75-1A6E1F8257E3}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{36C11E27-EB49-4A61-9A75-1A6E1F8257E3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4334673D-6409-44F0-ABBF-9DD4FC5851FE}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{3305DB67-503C-42EA-A893-4F44F7E04A44}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76FF2ECC-CDC3-4332-9951-B3F79F69B4AF}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F22" totalsRowShown="0">
-  <autoFilter ref="A1:F22" xr:uid="{76FF2ECC-CDC3-4332-9951-B3F79F69B4AF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-    <sortCondition ref="A2:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBCD8436-767D-4FAA-8FF9-9BD94F9A8475}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23" xr:uid="{BBCD8436-767D-4FAA-8FF9-9BD94F9A8475}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{139435B6-9535-4692-ACB5-DA723C15DBF6}" name="System"/>
-    <tableColumn id="5" xr3:uid="{D59CCB3F-0427-44C4-8C9C-D4CABC7BDB26}" name="Language" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CF3935DA-0763-4679-8E3B-0A41782B58D4}" name="Platform" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0E3CAF64-F62F-400B-9A6F-A87A3645757F}" name="Long_Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E2CE9C90-FC00-413B-BD61-7391997E6B5F}" name="Report_Name" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{8CC82FC6-9052-4BAC-9962-DC653B9E7829}" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0B63506A-D7D3-4B1B-A8A4-E7878D8BB61D}" name="System"/>
+    <tableColumn id="5" xr3:uid="{B409A6B8-A85B-4CCE-8F87-CDCFC3C5A711}" name="Language" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E89FB151-4011-439C-AD64-62A6A14E3BC6}" name="Platform" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2113F7C0-BA69-42D8-87B2-FBF7D8C331FC}" name="Long_Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8CCC808A-49FD-433D-A768-F7F99A5C8987}" name="Report_Name" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E40D3B23-1B1A-494A-B0E4-908CCB21637A}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -670,7 +676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B407E-BD93-4F8C-9DBE-27E116969ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E722941-1DCA-4A0F-9C25-BDBAE2DD0BC7}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -754,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47336B55-8897-4672-84B2-2599DF053F84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D650DA-B877-4795-926B-1BE20543FA4C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -783,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A4632D-9D32-44BD-BA76-796080467230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C238F9-DFAB-4562-AB7A-AEB24B442500}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -812,8 +818,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FEC422-2F97-4754-9E96-DB5DD4802120}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3AECAE-6B24-417B-9A0D-8CDBE00063B4}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1161,30 +1167,30 @@
         <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,7 +1210,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,7 +1230,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1244,7 +1250,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,6 +1270,26 @@
         <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/DEVMS_DB.xlsx
+++ b/DEVMS_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81853AB-C0F1-44E2-9594-12A06B4CC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5486CF3-D0A8-4478-8D2F-439456E1FB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{813FE06C-ACEF-4099-9A12-E2908B4391D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A5C87C45-9B47-4900-8954-08401D033B24}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPES" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
   <si>
     <t>Type</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Q2xpZW50IExpc3RzIEFuYWx5c2lz</t>
+  </si>
+  <si>
+    <t>Q1NFUg==</t>
+  </si>
+  <si>
+    <t>Q2xpZW50IFNhbGVzIEV4dGVuZGVkIFJlcG9ydA==</t>
   </si>
   <si>
     <t>Q1NS</t>
@@ -324,57 +330,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14ADE542-D06D-4B24-B34F-B783639F173B}" name="TYPES" displayName="TYPES" ref="A1:A13" totalsRowShown="0">
-  <autoFilter ref="A1:A13" xr:uid="{14ADE542-D06D-4B24-B34F-B783639F173B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5B05B2A-1210-4F34-A460-5A00E6FC0E28}" name="TYPES" displayName="TYPES" ref="A1:A13" totalsRowShown="0">
+  <autoFilter ref="A1:A13" xr:uid="{A5B05B2A-1210-4F34-A460-5A00E6FC0E28}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F23C50BF-D58C-4C9E-A2DB-F2C59B195910}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{85DEA9D7-553B-4B26-99F6-00AA0DCA52B4}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07979B29-6EE8-4DC7-84F8-A0772469B2CC}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{07979B29-6EE8-4DC7-84F8-A0772469B2CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6EBBFA42-75B1-4E4C-A30B-007E29720010}" name="LANGUAGES" displayName="LANGUAGES" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{6EBBFA42-75B1-4E4C-A30B-007E29720010}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{02C50630-0FEC-4AB4-96E7-09AB59BC9A13}" name="Language"/>
+    <tableColumn id="1" xr3:uid="{87872DAD-4A84-4130-A141-179A33ED8B82}" name="Language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{36C11E27-EB49-4A61-9A75-1A6E1F8257E3}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
-  <autoFilter ref="A1:A2" xr:uid="{36C11E27-EB49-4A61-9A75-1A6E1F8257E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED56F535-0664-431E-ACE9-7BF01BA4DEF2}" name="PLATFORMS" displayName="PLATFORMS" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{ED56F535-0664-431E-ACE9-7BF01BA4DEF2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3305DB67-503C-42EA-A893-4F44F7E04A44}" name="Platform"/>
+    <tableColumn id="1" xr3:uid="{3119BF99-645F-4F74-803B-3349D0ED4C8D}" name="Platform"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBCD8436-767D-4FAA-8FF9-9BD94F9A8475}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23" xr:uid="{BBCD8436-767D-4FAA-8FF9-9BD94F9A8475}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
-    <sortCondition ref="A2:A23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C6C5B3C-00B1-470D-B02E-ACA1C094B16E}" name="SYSTEMS" displayName="SYSTEMS" ref="A1:F24" totalsRowShown="0">
+  <autoFilter ref="A1:F24" xr:uid="{0C6C5B3C-00B1-470D-B02E-ACA1C094B16E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0B63506A-D7D3-4B1B-A8A4-E7878D8BB61D}" name="System"/>
-    <tableColumn id="5" xr3:uid="{B409A6B8-A85B-4CCE-8F87-CDCFC3C5A711}" name="Language" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E89FB151-4011-439C-AD64-62A6A14E3BC6}" name="Platform" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2113F7C0-BA69-42D8-87B2-FBF7D8C331FC}" name="Long_Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8CCC808A-49FD-433D-A768-F7F99A5C8987}" name="Report_Name" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{E40D3B23-1B1A-494A-B0E4-908CCB21637A}" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DF6E5A5C-99EC-4AD8-B397-412A2F8F87BD}" name="System"/>
+    <tableColumn id="5" xr3:uid="{0D4EC3FC-FF20-481A-96F7-65366ECE9A14}" name="Language" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C2EEF503-CD8A-4F6B-8F0F-D680DD66A521}" name="Platform" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C43266A2-8295-476C-ACC7-F83FCF0F2B82}" name="Long_Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FCE8BF05-D1DC-40EA-99FB-FC97D48F0E16}" name="Report_Name" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1ABD13BF-940B-445C-98E3-5B1442DF0BF1}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E722941-1DCA-4A0F-9C25-BDBAE2DD0BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC88C38E-C0BF-45AD-83A8-DFE616779491}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -760,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D650DA-B877-4795-926B-1BE20543FA4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD63DDB5-E438-43AC-9156-FDA6D11E9AB4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -789,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C238F9-DFAB-4562-AB7A-AEB24B442500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A18B80-41C1-4A8E-A5BF-8C9E792CDF2B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -818,8 +824,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3AECAE-6B24-417B-9A0D-8CDBE00063B4}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C48866-4F87-4A95-83EE-4FCFCB38A1A4}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +976,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -987,70 +993,70 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1070,7 +1076,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1090,7 +1096,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,30 +1113,30 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1150,7 +1156,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1187,30 +1193,30 @@
         <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1230,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1250,7 +1256,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1270,7 +1276,7 @@
         <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1290,6 +1296,26 @@
         <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
